--- a/flex/KRAS_mutations_Riggi_Lab_2023_03.xlsx
+++ b/flex/KRAS_mutations_Riggi_Lab_2023_03.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taol9/Documents/flex/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taol9/gitsss/yo/flex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E18F33-4A45-2345-AC81-79B51A46B5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D7636C-3B91-C947-829A-727E653FA0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="900" windowWidth="17800" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="900" windowWidth="34900" windowHeight="16780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mutations" sheetId="1" r:id="rId1"/>
     <sheet name="CellLines" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="pilot" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10122" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10154" uniqueCount="1498">
   <si>
     <t>clid</t>
   </si>
@@ -4536,6 +4537,9 @@
   </si>
   <si>
     <t xml:space="preserve">expression K-562 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">expression NCI-H358 </t>
   </si>
 </sst>
 </file>
@@ -4758,7 +4762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4824,23 +4828,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4851,21 +4846,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -59273,8 +59302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D4F66-A47F-1849-B4FD-19DF6CBBA761}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59289,17 +59318,17 @@
     <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>861</v>
       </c>
-      <c r="D1" s="32"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>865</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -59336,25 +59365,25 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1373</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="32">
         <v>49</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>46</v>
       </c>
       <c r="E3" s="10">
         <v>175</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="36">
         <v>317</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="36">
         <v>71</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -59374,17 +59403,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="11" t="s">
         <v>1375</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="13" t="s">
         <v>1376</v>
       </c>
@@ -59402,25 +59431,25 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="37">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1376</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="36">
         <v>89.4</v>
       </c>
       <c r="D5" s="10">
         <v>142.69999999999999</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="38">
         <v>43.1</v>
       </c>
       <c r="F5" s="8">
         <v>84.3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="36">
         <v>87.6</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -59440,19 +59469,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="11" t="s">
         <v>1378</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="13" t="s">
         <v>1385</v>
       </c>
@@ -59470,7 +59499,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="37">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -59482,13 +59511,13 @@
       <c r="D7" s="10">
         <v>22.6</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="38">
         <v>7.3</v>
       </c>
       <c r="F7" s="8">
         <v>7.4</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="36" t="s">
         <v>1384</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -59508,7 +59537,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="7" t="s">
         <v>1380</v>
       </c>
@@ -59518,11 +59547,11 @@
       <c r="D8" s="11" t="s">
         <v>1382</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="7" t="s">
         <v>1383</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="13" t="s">
         <v>1393</v>
       </c>
@@ -59540,7 +59569,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="37">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -59555,10 +59584,10 @@
       <c r="E9" s="10">
         <v>1.8</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="36">
         <v>49.7</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="36">
         <v>9.4</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -59578,7 +59607,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="7" t="s">
         <v>1386</v>
       </c>
@@ -59591,8 +59620,8 @@
       <c r="E10" s="11" t="s">
         <v>1389</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="13" t="s">
         <v>1400</v>
       </c>
@@ -59610,25 +59639,25 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="37">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1390</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="36">
         <v>2.9</v>
       </c>
       <c r="D11" s="10">
         <v>4.3</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="38">
         <v>10.7</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="36">
         <v>3.6</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="36">
         <v>1.1000000000000001</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -59648,17 +59677,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="11" t="s">
         <v>1392</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="13" t="s">
         <v>1406</v>
       </c>
@@ -59676,25 +59705,25 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="37">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1393</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="36">
         <v>9</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="38">
         <v>7.7</v>
       </c>
       <c r="E13" s="10">
         <v>14</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="36">
         <v>3.5</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="36">
         <v>3.9</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -59714,17 +59743,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="11" t="s">
         <v>1395</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="13" t="s">
         <v>1413</v>
       </c>
@@ -59742,25 +59771,25 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="37">
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1396</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="36">
         <v>3.7</v>
       </c>
       <c r="D15" s="10">
         <v>5</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="38">
         <v>3</v>
       </c>
       <c r="F15" s="8">
         <v>1.7</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="36">
         <v>3.7</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -59771,19 +59800,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="7" t="s">
         <v>1397</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="11" t="s">
         <v>1398</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="35"/>
       <c r="F16" s="7" t="s">
         <v>1399</v>
       </c>
-      <c r="G16" s="26"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="13" t="s">
         <v>1419</v>
       </c>
@@ -59801,25 +59830,25 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="29">
+      <c r="A17" s="37">
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="36">
         <v>2</v>
       </c>
       <c r="D17" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="38">
         <v>14</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="36">
         <v>3.1</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="36">
         <v>1.5</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -59839,17 +59868,17 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="11" t="s">
         <v>1402</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="13" t="s">
         <v>1425</v>
       </c>
@@ -59867,25 +59896,25 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="29">
+      <c r="A19" s="37">
         <v>9</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>1403</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="36">
         <v>0.5</v>
       </c>
       <c r="D19" s="10">
         <v>6.5</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="38">
         <v>0.36</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="36">
         <v>0.03</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="36">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -59905,17 +59934,17 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="7" t="s">
         <v>1404</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="11" t="s">
         <v>1405</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="13" t="s">
         <v>1431</v>
       </c>
@@ -59933,25 +59962,25 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="29">
+      <c r="A21" s="37">
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>1406</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="36">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="38">
         <v>8.8000000000000007</v>
       </c>
       <c r="E21" s="10">
         <v>2.7</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="36">
         <v>15</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="36">
         <v>49.9</v>
       </c>
       <c r="H21" s="13" t="s">
@@ -59962,17 +59991,17 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="11" t="s">
         <v>1408</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="13" t="s">
         <v>1437</v>
       </c>
@@ -59981,25 +60010,25 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="29">
+      <c r="A23" s="37">
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>1409</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="36">
         <v>32</v>
       </c>
       <c r="D23" s="10">
         <v>29</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="38">
         <v>17</v>
       </c>
       <c r="F23" s="8">
         <v>5.8</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="36">
         <v>16</v>
       </c>
       <c r="H23" s="13" t="s">
@@ -60010,19 +60039,19 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="7" t="s">
         <v>1410</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="11" t="s">
         <v>1411</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="G24" s="26"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="13" t="s">
         <v>1444</v>
       </c>
@@ -60031,22 +60060,22 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="29">
+      <c r="A25" s="37">
         <v>12</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1413</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="36">
         <v>18</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="38">
         <v>14.6</v>
       </c>
       <c r="E25" s="10">
         <v>20</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="36">
         <v>6</v>
       </c>
       <c r="G25" s="8">
@@ -60060,320 +60089,320 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="11" t="s">
         <v>1415</v>
       </c>
-      <c r="F26" s="26"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="29">
+      <c r="A27" s="37">
         <v>13</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>1417</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="36">
         <v>17.7</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="38">
         <v>10.8</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="38">
         <v>2E-3</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="36">
         <v>6.8</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="36">
         <v>3.1</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="29">
+      <c r="A29" s="37">
         <v>14</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>1419</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="36">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="38">
         <v>1E-3</v>
       </c>
       <c r="E29" s="10">
         <v>1E-3</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="36">
         <v>30.4</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="36">
         <v>17.5</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="29">
+      <c r="A31" s="37">
         <v>15</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>1422</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="36">
         <v>2.65</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="38">
         <v>1E-3</v>
       </c>
       <c r="E31" s="10">
         <v>1E-3</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="36">
         <v>1E-3</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="36">
         <v>1E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="7" t="s">
         <v>1423</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="11" t="s">
         <v>1424</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="29">
+      <c r="A33" s="37">
         <v>16</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="36">
         <v>1.5</v>
       </c>
       <c r="D33" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="38">
         <v>0.02</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="36">
         <v>1.6</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="36">
         <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="7" t="s">
         <v>1426</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="11" t="s">
         <v>1427</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="29">
+      <c r="A35" s="37">
         <v>17</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="36">
         <v>4</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="38">
         <v>0.06</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="36">
         <v>0.04</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="7" t="s">
         <v>1429</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="11" t="s">
         <v>1430</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="29">
+      <c r="A37" s="37">
         <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>1431</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37" s="36">
         <v>1E-3</v>
       </c>
       <c r="D37" s="10">
         <v>0.01</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="38">
         <v>21</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="36">
         <v>0.01</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="36">
         <v>0.06</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="11" t="s">
         <v>1433</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="29">
+      <c r="A39" s="37">
         <v>19</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>1434</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C39" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="38">
         <v>3.7</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="38">
         <v>15.2</v>
       </c>
       <c r="F39" s="8">
         <v>3.2</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="36">
         <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="G40" s="26"/>
+      <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="25">
+      <c r="A41" s="36">
         <v>20</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>1437</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="36">
         <v>1.9</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="38">
         <v>3.8</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="38">
         <v>3.8</v>
       </c>
       <c r="F41" s="8">
         <v>4.7</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="36">
         <v>3.8</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="26"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="G42" s="26"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="25">
+      <c r="A43" s="36">
         <v>21</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>1440</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="36">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D43" s="27">
+      <c r="D43" s="38">
         <v>2.9</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="38">
         <v>5.5</v>
       </c>
       <c r="F43" s="8">
@@ -60384,13 +60413,13 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="7" t="s">
         <v>1442</v>
       </c>
@@ -60399,52 +60428,52 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="25">
+      <c r="A45" s="36">
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>1444</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
+      <c r="A47" s="36">
         <v>23</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="7" t="s">
         <v>1447</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -60466,101 +60495,6 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="A47:A48"/>
@@ -60577,6 +60511,101 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60586,8 +60615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22796750-F1D2-2943-AB36-2EC75EE85AC6}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -60693,19 +60722,19 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>1373</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>1453</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>1454</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>1455</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="17" t="s">
         <v>1456</v>
       </c>
@@ -60940,22 +60969,22 @@
       <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="25" t="s">
         <v>1428</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="25" t="s">
         <v>1489</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="26" t="s">
         <v>1490</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="25" t="s">
         <v>1491</v>
       </c>
-      <c r="E18" s="38">
-        <v>1</v>
-      </c>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="27">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>1485</v>
       </c>
       <c r="H18" s="19"/>
@@ -60982,33 +61011,33 @@
       <c r="I23" s="7"/>
       <c r="J23" s="6"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="27"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I24" s="12"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="28"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I25" s="7"/>
       <c r="J25" s="6"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="27"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I26" s="12"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="28"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I27" s="7"/>
       <c r="J27" s="6"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="27"/>
+      <c r="L27" s="38"/>
     </row>
     <row r="28" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K28" s="11"/>
-      <c r="L28" s="28"/>
+      <c r="L28" s="35"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
@@ -61021,4 +61050,464 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FEAF2C-CB1D-0648-93D3-E82755EC9284}">
+  <dimension ref="A1:N22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E2" s="21">
+        <v>22.6</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G2" s="48">
+        <v>7.3</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E3" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0.36</v>
+      </c>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G4" s="48">
+        <v>21</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E5" s="10">
+        <v>175</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L15:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/flex/KRAS_mutations_Riggi_Lab_2023_03.xlsx
+++ b/flex/KRAS_mutations_Riggi_Lab_2023_03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taol9/gitsss/yo/flex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D7636C-3B91-C947-829A-727E653FA0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EF57A2-D220-CB49-94CD-01B80D73E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="900" windowWidth="34900" windowHeight="16780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="22320" windowHeight="13940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mutations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,17 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="pilot" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4762,7 +4772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4837,6 +4847,31 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4846,55 +4881,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5211,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59302,8 +59297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D4F66-A47F-1849-B4FD-19DF6CBBA761}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59318,17 +59313,17 @@
     <row r="1" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="D1" s="29"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="37" t="s">
         <v>865</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -59365,25 +59360,25 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1373</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="40">
         <v>49</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="41">
         <v>46</v>
       </c>
       <c r="E3" s="10">
         <v>175</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="31">
         <v>317</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="31">
         <v>71</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -59403,17 +59398,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="7" t="s">
         <v>1374</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="11" t="s">
         <v>1375</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="13" t="s">
         <v>1376</v>
       </c>
@@ -59431,25 +59426,25 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1376</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="31">
         <v>89.4</v>
       </c>
       <c r="D5" s="10">
         <v>142.69999999999999</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="33">
         <v>43.1</v>
       </c>
       <c r="F5" s="8">
         <v>84.3</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="31">
         <v>87.6</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -59469,19 +59464,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="7" t="s">
         <v>1377</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="11" t="s">
         <v>1378</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="7" t="s">
         <v>1379</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="13" t="s">
         <v>1385</v>
       </c>
@@ -59499,7 +59494,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -59511,13 +59506,13 @@
       <c r="D7" s="10">
         <v>22.6</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="33">
         <v>7.3</v>
       </c>
       <c r="F7" s="8">
         <v>7.4</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="31" t="s">
         <v>1384</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -59537,7 +59532,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="7" t="s">
         <v>1380</v>
       </c>
@@ -59547,11 +59542,11 @@
       <c r="D8" s="11" t="s">
         <v>1382</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="7" t="s">
         <v>1383</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="13" t="s">
         <v>1393</v>
       </c>
@@ -59569,7 +59564,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="A9" s="35">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -59584,10 +59579,10 @@
       <c r="E9" s="10">
         <v>1.8</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="31">
         <v>49.7</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="31">
         <v>9.4</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -59607,7 +59602,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="7" t="s">
         <v>1386</v>
       </c>
@@ -59620,8 +59615,8 @@
       <c r="E10" s="11" t="s">
         <v>1389</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="13" t="s">
         <v>1400</v>
       </c>
@@ -59639,25 +59634,25 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>1390</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="31">
         <v>2.9</v>
       </c>
       <c r="D11" s="10">
         <v>4.3</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="33">
         <v>10.7</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="31">
         <v>3.6</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="31">
         <v>1.1000000000000001</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -59677,17 +59672,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="11" t="s">
         <v>1392</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="13" t="s">
         <v>1406</v>
       </c>
@@ -59705,25 +59700,25 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <v>6</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1393</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="31">
         <v>9</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="33">
         <v>7.7</v>
       </c>
       <c r="E13" s="10">
         <v>14</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="31">
         <v>3.5</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="31">
         <v>3.9</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -59743,17 +59738,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="35"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="11" t="s">
         <v>1395</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="13" t="s">
         <v>1413</v>
       </c>
@@ -59771,25 +59766,25 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>7</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1396</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="31">
         <v>3.7</v>
       </c>
       <c r="D15" s="10">
         <v>5</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="33">
         <v>3</v>
       </c>
       <c r="F15" s="8">
         <v>1.7</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="31">
         <v>3.7</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -59800,19 +59795,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="7" t="s">
         <v>1397</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="11" t="s">
         <v>1398</v>
       </c>
-      <c r="E16" s="35"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="7" t="s">
         <v>1399</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="13" t="s">
         <v>1419</v>
       </c>
@@ -59830,25 +59825,25 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+      <c r="A17" s="35">
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>1400</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="31">
         <v>2</v>
       </c>
       <c r="D17" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="33">
         <v>14</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="31">
         <v>3.1</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="31">
         <v>1.5</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -59868,17 +59863,17 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="11" t="s">
         <v>1402</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="13" t="s">
         <v>1425</v>
       </c>
@@ -59896,25 +59891,25 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <v>9</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>1403</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="31">
         <v>0.5</v>
       </c>
       <c r="D19" s="10">
         <v>6.5</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="33">
         <v>0.36</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="31">
         <v>0.03</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="31">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -59934,17 +59929,17 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="7" t="s">
         <v>1404</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="11" t="s">
         <v>1405</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="13" t="s">
         <v>1431</v>
       </c>
@@ -59962,25 +59957,25 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
+      <c r="A21" s="35">
         <v>10</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>1406</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="31">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="33">
         <v>8.8000000000000007</v>
       </c>
       <c r="E21" s="10">
         <v>2.7</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="31">
         <v>15</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="31">
         <v>49.9</v>
       </c>
       <c r="H21" s="13" t="s">
@@ -59991,17 +59986,17 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="11" t="s">
         <v>1408</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="13" t="s">
         <v>1437</v>
       </c>
@@ -60010,25 +60005,25 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="37">
+      <c r="A23" s="35">
         <v>11</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>1409</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="31">
         <v>32</v>
       </c>
       <c r="D23" s="10">
         <v>29</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="33">
         <v>17</v>
       </c>
       <c r="F23" s="8">
         <v>5.8</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="31">
         <v>16</v>
       </c>
       <c r="H23" s="13" t="s">
@@ -60039,19 +60034,19 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="7" t="s">
         <v>1410</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="11" t="s">
         <v>1411</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="7" t="s">
         <v>1412</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="13" t="s">
         <v>1444</v>
       </c>
@@ -60060,22 +60055,22 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>12</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>1413</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="31">
         <v>18</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="33">
         <v>14.6</v>
       </c>
       <c r="E25" s="10">
         <v>20</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="31">
         <v>6</v>
       </c>
       <c r="G25" s="8">
@@ -60089,320 +60084,320 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="7" t="s">
         <v>1414</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="11" t="s">
         <v>1415</v>
       </c>
-      <c r="F26" s="33"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="7" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="37">
+      <c r="A27" s="35">
         <v>13</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>1417</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="31">
         <v>17.7</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="33">
         <v>10.8</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="33">
         <v>2E-3</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="31">
         <v>6.8</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="31">
         <v>3.1</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="37">
+      <c r="A29" s="35">
         <v>14</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>1419</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="31">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="33">
         <v>1E-3</v>
       </c>
       <c r="E29" s="10">
         <v>1E-3</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="31">
         <v>30.4</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="31">
         <v>17.5</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="35"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="37">
+      <c r="A31" s="35">
         <v>15</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>1422</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="31">
         <v>2.65</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="33">
         <v>1E-3</v>
       </c>
       <c r="E31" s="10">
         <v>1E-3</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="31">
         <v>1E-3</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="31">
         <v>1E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="7" t="s">
         <v>1423</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="35"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="11" t="s">
         <v>1424</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="37">
+      <c r="A33" s="35">
         <v>16</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>1425</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="31">
         <v>1.5</v>
       </c>
       <c r="D33" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="33">
         <v>0.02</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="31">
         <v>1.6</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="31">
         <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="7" t="s">
         <v>1426</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="11" t="s">
         <v>1427</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="37">
+      <c r="A35" s="35">
         <v>17</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="31">
         <v>4</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="33">
         <v>0.06</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="31">
         <v>0.04</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="31">
         <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="7" t="s">
         <v>1429</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11" t="s">
         <v>1430</v>
       </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="37">
+      <c r="A37" s="35">
         <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>1431</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="31">
         <v>1E-3</v>
       </c>
       <c r="D37" s="10">
         <v>0.01</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="33">
         <v>21</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="31">
         <v>0.01</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="31">
         <v>0.06</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="C38" s="33"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="11" t="s">
         <v>1433</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="37">
+      <c r="A39" s="35">
         <v>19</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>1434</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="31">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="33">
         <v>3.7</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="33">
         <v>15.2</v>
       </c>
       <c r="F39" s="8">
         <v>3.2</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="31">
         <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="7" t="s">
         <v>1435</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="7" t="s">
         <v>1436</v>
       </c>
-      <c r="G40" s="33"/>
+      <c r="G40" s="32"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+      <c r="A41" s="31">
         <v>20</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>1437</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="31">
         <v>1.9</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="33">
         <v>3.8</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="33">
         <v>3.8</v>
       </c>
       <c r="F41" s="8">
         <v>4.7</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="31">
         <v>3.8</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="G42" s="33"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="36">
+      <c r="A43" s="31">
         <v>21</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>1440</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="31">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="33">
         <v>2.9</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="33">
         <v>5.5</v>
       </c>
       <c r="F43" s="8">
@@ -60413,13 +60408,13 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="7" t="s">
         <v>1441</v>
       </c>
-      <c r="C44" s="33"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="7" t="s">
         <v>1442</v>
       </c>
@@ -60428,52 +60423,52 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="36">
+      <c r="A45" s="31">
         <v>22</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>1444</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="7" t="s">
         <v>1445</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="36">
+      <c r="A47" s="31">
         <v>23</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>1446</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="7" t="s">
         <v>1447</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
@@ -60495,6 +60490,101 @@
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="A47:A48"/>
@@ -60511,101 +60601,6 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -60615,8 +60610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22796750-F1D2-2943-AB36-2EC75EE85AC6}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -60734,9 +60729,14 @@
       <c r="D5" s="20" t="s">
         <v>1455</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="22">
+        <v>46</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>1456</v>
+      </c>
+      <c r="G5" s="16">
+        <v>175</v>
       </c>
       <c r="H5" s="19"/>
     </row>
@@ -60986,6 +60986,9 @@
       </c>
       <c r="F18" s="25" t="s">
         <v>1485</v>
+      </c>
+      <c r="G18">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H18" s="19"/>
     </row>
@@ -61011,33 +61014,33 @@
       <c r="I23" s="7"/>
       <c r="J23" s="6"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="38"/>
+      <c r="L23" s="33"/>
     </row>
     <row r="24" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I24" s="12"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="35"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I25" s="7"/>
       <c r="J25" s="6"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="38"/>
+      <c r="L25" s="33"/>
     </row>
     <row r="26" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I26" s="12"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="35"/>
+      <c r="L26" s="34"/>
     </row>
     <row r="27" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I27" s="7"/>
       <c r="J27" s="6"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="38"/>
+      <c r="L27" s="33"/>
     </row>
     <row r="28" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K28" s="11"/>
-      <c r="L28" s="35"/>
+      <c r="L28" s="34"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H18">
@@ -61054,9 +61057,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FEAF2C-CB1D-0648-93D3-E82755EC9284}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
@@ -61070,7 +61073,7 @@
     <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>1448</v>
       </c>
@@ -61083,24 +61086,17 @@
       <c r="D1" s="18" t="s">
         <v>1451</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="19" t="s">
         <v>1497</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>1452</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="19" t="s">
         <v>1496</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>682</v>
       </c>
@@ -61119,18 +61115,11 @@
       <c r="F2" s="17" t="s">
         <v>1455</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="19">
         <v>7.3</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>1403</v>
       </c>
@@ -61149,18 +61138,11 @@
       <c r="F3" s="17" t="s">
         <v>1455</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="19">
         <v>0.36</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
     </row>
-    <row r="4" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>1431</v>
       </c>
@@ -61179,18 +61161,11 @@
       <c r="F4" s="17" t="s">
         <v>1494</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="19">
         <v>21</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>1373</v>
       </c>
@@ -61209,16 +61184,10 @@
       <c r="F5" s="17" t="s">
         <v>1456</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>1428</v>
       </c>
@@ -61237,270 +61206,58 @@
       <c r="F6" s="25" t="s">
         <v>1485</v>
       </c>
-      <c r="G6" s="49"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="42"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="2"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="42"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="1"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="42"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I15" s="2"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="9"/>
+      <c r="L16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/flex/KRAS_mutations_Riggi_Lab_2023_03.xlsx
+++ b/flex/KRAS_mutations_Riggi_Lab_2023_03.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taol9/gitsss/yo/flex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EF57A2-D220-CB49-94CD-01B80D73E397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDE497D-058F-7E41-A13A-D33ABA9FF6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="22320" windowHeight="13940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="49780" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mutations" sheetId="1" r:id="rId1"/>
-    <sheet name="CellLines" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="pilot" sheetId="5" r:id="rId5"/>
+    <sheet name="allCellLines" sheetId="2" r:id="rId2"/>
+    <sheet name="candidates" sheetId="3" r:id="rId3"/>
+    <sheet name="k562_h358" sheetId="4" r:id="rId4"/>
+    <sheet name="flexpilot" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4772,7 +4771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4889,6 +4888,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5206,8 +5214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT161"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5218,6 +5226,10 @@
     <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27767,9 +27779,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM160"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="AC5" workbookViewId="0">
+      <selection activeCell="BH1" sqref="BH1:BH1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -59297,8 +59316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D4F66-A47F-1849-B4FD-19DF6CBBA761}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -60610,8 +60629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22796750-F1D2-2943-AB36-2EC75EE85AC6}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -60660,7 +60679,7 @@
       <c r="D2" s="20" t="s">
         <v>1460</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="43">
         <v>22.6</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -60671,45 +60690,45 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>1403</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>1473</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>1474</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>1475</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="43">
         <v>6.5</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>1455</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="19">
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>1431</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>1433</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>1492</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>1493</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="43">
         <v>0.01</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>1494</v>
       </c>
       <c r="G4" s="19">
@@ -60735,29 +60754,34 @@
       <c r="F5" s="20" t="s">
         <v>1456</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="44">
         <v>175</v>
       </c>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>1376</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>1378</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
         <v>1457</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>1458</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="22">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>1455</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="G6" s="44">
+        <v>43.1</v>
+      </c>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
@@ -60772,9 +60796,14 @@
       <c r="D7" s="17" t="s">
         <v>1463</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="19">
+        <v>0.01</v>
+      </c>
       <c r="F7" s="17" t="s">
         <v>1464</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1.8</v>
       </c>
       <c r="H7" s="19"/>
     </row>
@@ -60795,26 +60824,32 @@
       <c r="F8" s="17" t="s">
         <v>1455</v>
       </c>
+      <c r="G8" s="28"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>1393</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>1395</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>1467</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="20" t="s">
         <v>1455</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="22">
+        <v>7.7</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>1468</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="G9" s="44">
+        <v>14</v>
+      </c>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
@@ -60833,6 +60868,7 @@
       <c r="F10" s="17" t="s">
         <v>1455</v>
       </c>
+      <c r="G10" s="44"/>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -60852,6 +60888,7 @@
       <c r="F11" s="17" t="s">
         <v>1455</v>
       </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -60871,6 +60908,7 @@
       <c r="F12" s="17" t="s">
         <v>1477</v>
       </c>
+      <c r="G12" s="28"/>
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -60886,9 +60924,14 @@
       <c r="D13" s="17" t="s">
         <v>1466</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="45">
+        <v>29</v>
+      </c>
       <c r="F13" s="17" t="s">
         <v>1480</v>
+      </c>
+      <c r="G13" s="28">
+        <v>17</v>
       </c>
       <c r="H13" s="19"/>
     </row>
@@ -60909,6 +60952,7 @@
       <c r="F14" s="17" t="s">
         <v>1482</v>
       </c>
+      <c r="G14" s="28"/>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -60928,6 +60972,7 @@
       <c r="F15" s="17" t="s">
         <v>1485</v>
       </c>
+      <c r="G15" s="28"/>
       <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -60947,6 +60992,7 @@
       <c r="F16" s="17" t="s">
         <v>1485</v>
       </c>
+      <c r="G16" s="28"/>
       <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -60966,6 +61012,7 @@
       <c r="F17" s="17" t="s">
         <v>1485</v>
       </c>
+      <c r="G17" s="28"/>
       <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -60987,7 +61034,7 @@
       <c r="F18" s="25" t="s">
         <v>1485</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="28">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H18" s="19"/>
